--- a/ValueSet-R5-v3-LoincDocumentOntologyInternational-for-R4.xlsx
+++ b/ValueSet-R5-v3-LoincDocumentOntologyInternational-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,8 @@
 * _no concepts_
 Following are the generation technical comments:
 All concepts in the comparison are listed as identical.
-The source value set has more active concepts (691) than the target (0), so the source is broader than the target.</t>
+The source value set has more active concepts (691) than the target (0), so the source is broader than the target.
+FHIR ValueSet `http://terminology.hl7.org/ValueSet/v3-LoincDocumentOntologyInternational|2.0.0`, defined in FHIR R5 does not have any mapping to FHIR R4</t>
   </si>
   <si>
     <t>Copyright</t>
